--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Psen1-Notch4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Psen1-Notch4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.7945119512476</v>
+        <v>27.58598166666667</v>
       </c>
       <c r="H2">
-        <v>22.7945119512476</v>
+        <v>82.75794500000001</v>
       </c>
       <c r="I2">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="J2">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.4246363064874</v>
+        <v>30.020559</v>
       </c>
       <c r="N2">
-        <v>14.4246363064874</v>
+        <v>90.061677</v>
       </c>
       <c r="O2">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="P2">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="Q2">
-        <v>328.8025446806271</v>
+        <v>828.1465901970852</v>
       </c>
       <c r="R2">
-        <v>328.8025446806271</v>
+        <v>7453.319311773766</v>
       </c>
       <c r="S2">
-        <v>0.2002378478550231</v>
+        <v>0.2387975452339363</v>
       </c>
       <c r="T2">
-        <v>0.2002378478550231</v>
+        <v>0.2387975452339363</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.7945119512476</v>
+        <v>27.58598166666667</v>
       </c>
       <c r="H3">
-        <v>22.7945119512476</v>
+        <v>82.75794500000001</v>
       </c>
       <c r="I3">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="J3">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.40516621203162</v>
+        <v>1.426936666666667</v>
       </c>
       <c r="N3">
-        <v>1.40516621203162</v>
+        <v>4.28081</v>
       </c>
       <c r="O3">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="P3">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="Q3">
-        <v>32.03007801364408</v>
+        <v>39.36344872616111</v>
       </c>
       <c r="R3">
-        <v>32.03007801364408</v>
+        <v>354.27103853545</v>
       </c>
       <c r="S3">
-        <v>0.01950603482801596</v>
+        <v>0.01135052059504607</v>
       </c>
       <c r="T3">
-        <v>0.01950603482801596</v>
+        <v>0.01135052059504607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.7945119512476</v>
+        <v>27.58598166666667</v>
       </c>
       <c r="H4">
-        <v>22.7945119512476</v>
+        <v>82.75794500000001</v>
       </c>
       <c r="I4">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="J4">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.558421719974567</v>
+        <v>1.067853</v>
       </c>
       <c r="N4">
-        <v>0.558421719974567</v>
+        <v>3.203559</v>
       </c>
       <c r="O4">
-        <v>0.03221383882012373</v>
+        <v>0.03140811737476231</v>
       </c>
       <c r="P4">
-        <v>0.03221383882012373</v>
+        <v>0.0314081173747623</v>
       </c>
       <c r="Q4">
-        <v>12.72895056979651</v>
+        <v>29.45777328069501</v>
       </c>
       <c r="R4">
-        <v>12.72895056979651</v>
+        <v>265.1199595262551</v>
       </c>
       <c r="S4">
-        <v>0.007751818557319087</v>
+        <v>0.008494201426119169</v>
       </c>
       <c r="T4">
-        <v>0.007751818557319087</v>
+        <v>0.008494201426119166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.7945119512476</v>
+        <v>27.58598166666667</v>
       </c>
       <c r="H5">
-        <v>22.7945119512476</v>
+        <v>82.75794500000001</v>
       </c>
       <c r="I5">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="J5">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.946615086080339</v>
+        <v>1.483919333333333</v>
       </c>
       <c r="N5">
-        <v>0.946615086080339</v>
+        <v>4.451758</v>
       </c>
       <c r="O5">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="P5">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="Q5">
-        <v>21.57762889288956</v>
+        <v>40.93537152414556</v>
       </c>
       <c r="R5">
-        <v>21.57762889288956</v>
+        <v>368.41834371731</v>
       </c>
       <c r="S5">
-        <v>0.01314058556184022</v>
+        <v>0.01180378733537837</v>
       </c>
       <c r="T5">
-        <v>0.01314058556184022</v>
+        <v>0.01180378733537837</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.0389694209687</v>
+        <v>26.23504533333333</v>
       </c>
       <c r="H6">
-        <v>26.0389694209687</v>
+        <v>78.705136</v>
       </c>
       <c r="I6">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="J6">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.4246363064874</v>
+        <v>30.020559</v>
       </c>
       <c r="N6">
-        <v>14.4246363064874</v>
+        <v>90.061677</v>
       </c>
       <c r="O6">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="P6">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="Q6">
-        <v>375.6026636932203</v>
+        <v>787.590726297008</v>
       </c>
       <c r="R6">
-        <v>375.6026636932203</v>
+        <v>7088.316536673072</v>
       </c>
       <c r="S6">
-        <v>0.228738707298015</v>
+        <v>0.2271031895983293</v>
       </c>
       <c r="T6">
-        <v>0.228738707298015</v>
+        <v>0.2271031895983293</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.0389694209687</v>
+        <v>26.23504533333333</v>
       </c>
       <c r="H7">
-        <v>26.0389694209687</v>
+        <v>78.705136</v>
       </c>
       <c r="I7">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="J7">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.40516621203162</v>
+        <v>1.426936666666667</v>
       </c>
       <c r="N7">
-        <v>1.40516621203162</v>
+        <v>4.28081</v>
       </c>
       <c r="O7">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="P7">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="Q7">
-        <v>36.58908002646977</v>
+        <v>37.43574813779555</v>
       </c>
       <c r="R7">
-        <v>36.58908002646977</v>
+        <v>336.9217332401599</v>
       </c>
       <c r="S7">
-        <v>0.02228242681823501</v>
+        <v>0.01079466469477827</v>
       </c>
       <c r="T7">
-        <v>0.02228242681823501</v>
+        <v>0.01079466469477827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.0389694209687</v>
+        <v>26.23504533333333</v>
       </c>
       <c r="H8">
-        <v>26.0389694209687</v>
+        <v>78.705136</v>
       </c>
       <c r="I8">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="J8">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.558421719974567</v>
+        <v>1.067853</v>
       </c>
       <c r="N8">
-        <v>0.558421719974567</v>
+        <v>3.203559</v>
       </c>
       <c r="O8">
-        <v>0.03221383882012373</v>
+        <v>0.03140811737476231</v>
       </c>
       <c r="P8">
-        <v>0.03221383882012373</v>
+        <v>0.0314081173747623</v>
       </c>
       <c r="Q8">
-        <v>14.5407260904225</v>
+        <v>28.015171864336</v>
       </c>
       <c r="R8">
-        <v>14.5407260904225</v>
+        <v>252.136546779024</v>
       </c>
       <c r="S8">
-        <v>0.008855173859507955</v>
+        <v>0.008078224736659459</v>
       </c>
       <c r="T8">
-        <v>0.008855173859507955</v>
+        <v>0.008078224736659456</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.0389694209687</v>
+        <v>26.23504533333333</v>
       </c>
       <c r="H9">
-        <v>26.0389694209687</v>
+        <v>78.705136</v>
       </c>
       <c r="I9">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="J9">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.946615086080339</v>
+        <v>1.483919333333333</v>
       </c>
       <c r="N9">
-        <v>0.946615086080339</v>
+        <v>4.451758</v>
       </c>
       <c r="O9">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="P9">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="Q9">
-        <v>24.6488812798736</v>
+        <v>38.93069098100977</v>
       </c>
       <c r="R9">
-        <v>24.6488812798736</v>
+        <v>350.376218829088</v>
       </c>
       <c r="S9">
-        <v>0.01501095116009503</v>
+        <v>0.01122573412795632</v>
       </c>
       <c r="T9">
-        <v>0.01501095116009503</v>
+        <v>0.01122573412795632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.2133891293748</v>
+        <v>29.31506333333334</v>
       </c>
       <c r="H10">
-        <v>27.2133891293748</v>
+        <v>87.94519000000001</v>
       </c>
       <c r="I10">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="J10">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.4246363064874</v>
+        <v>30.020559</v>
       </c>
       <c r="N10">
-        <v>14.4246363064874</v>
+        <v>90.061677</v>
       </c>
       <c r="O10">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="P10">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="Q10">
-        <v>392.5432408581493</v>
+        <v>880.0545883870702</v>
       </c>
       <c r="R10">
-        <v>392.5432408581493</v>
+        <v>7920.491295483631</v>
       </c>
       <c r="S10">
-        <v>0.2390553692819488</v>
+        <v>0.2537653090241925</v>
       </c>
       <c r="T10">
-        <v>0.2390553692819488</v>
+        <v>0.2537653090241925</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.2133891293748</v>
+        <v>29.31506333333334</v>
       </c>
       <c r="H11">
-        <v>27.2133891293748</v>
+        <v>87.94519000000001</v>
       </c>
       <c r="I11">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="J11">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.40516621203162</v>
+        <v>1.426936666666667</v>
       </c>
       <c r="N11">
-        <v>1.40516621203162</v>
+        <v>4.28081</v>
       </c>
       <c r="O11">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="P11">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="Q11">
-        <v>38.23933491946605</v>
+        <v>41.83073875598889</v>
       </c>
       <c r="R11">
-        <v>38.23933491946605</v>
+        <v>376.4766488039</v>
       </c>
       <c r="S11">
-        <v>0.02328741748370192</v>
+        <v>0.01206196807243389</v>
       </c>
       <c r="T11">
-        <v>0.02328741748370192</v>
+        <v>0.01206196807243389</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.2133891293748</v>
+        <v>29.31506333333334</v>
       </c>
       <c r="H12">
-        <v>27.2133891293748</v>
+        <v>87.94519000000001</v>
       </c>
       <c r="I12">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="J12">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.558421719974567</v>
+        <v>1.067853</v>
       </c>
       <c r="N12">
-        <v>0.558421719974567</v>
+        <v>3.203559</v>
       </c>
       <c r="O12">
-        <v>0.03221383882012373</v>
+        <v>0.03140811737476231</v>
       </c>
       <c r="P12">
-        <v>0.03221383882012373</v>
+        <v>0.0314081173747623</v>
       </c>
       <c r="Q12">
-        <v>15.19654756396266</v>
+        <v>31.30417832569001</v>
       </c>
       <c r="R12">
-        <v>15.19654756396266</v>
+        <v>281.7376049312101</v>
       </c>
       <c r="S12">
-        <v>0.009254563348924305</v>
+        <v>0.009026615611568428</v>
       </c>
       <c r="T12">
-        <v>0.009254563348924305</v>
+        <v>0.009026615611568426</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.2133891293748</v>
+        <v>29.31506333333334</v>
       </c>
       <c r="H13">
-        <v>27.2133891293748</v>
+        <v>87.94519000000001</v>
       </c>
       <c r="I13">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="J13">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.946615086080339</v>
+        <v>1.483919333333333</v>
       </c>
       <c r="N13">
-        <v>0.946615086080339</v>
+        <v>4.451758</v>
       </c>
       <c r="O13">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="P13">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="Q13">
-        <v>25.76060469324089</v>
+        <v>43.50118923822446</v>
       </c>
       <c r="R13">
-        <v>25.76060469324089</v>
+        <v>391.5107031440201</v>
       </c>
       <c r="S13">
-        <v>0.01568798090729158</v>
+        <v>0.01254364544611934</v>
       </c>
       <c r="T13">
-        <v>0.01568798090729158</v>
+        <v>0.01254364544611934</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.6791255406623</v>
+        <v>18.86569966666666</v>
       </c>
       <c r="H14">
-        <v>18.6791255406623</v>
+        <v>56.59709899999999</v>
       </c>
       <c r="I14">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="J14">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.4246363064874</v>
+        <v>30.020559</v>
       </c>
       <c r="N14">
-        <v>14.4246363064874</v>
+        <v>90.061677</v>
       </c>
       <c r="O14">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="P14">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="Q14">
-        <v>269.4395924472735</v>
+        <v>566.3588499194469</v>
       </c>
       <c r="R14">
-        <v>269.4395924472735</v>
+        <v>5097.229649275023</v>
       </c>
       <c r="S14">
-        <v>0.1640863338542022</v>
+        <v>0.1633105837579953</v>
       </c>
       <c r="T14">
-        <v>0.1640863338542022</v>
+        <v>0.1633105837579953</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.6791255406623</v>
+        <v>18.86569966666666</v>
       </c>
       <c r="H15">
-        <v>18.6791255406623</v>
+        <v>56.59709899999999</v>
       </c>
       <c r="I15">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="J15">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.40516621203162</v>
+        <v>1.426936666666667</v>
       </c>
       <c r="N15">
-        <v>1.40516621203162</v>
+        <v>4.28081</v>
       </c>
       <c r="O15">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="P15">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="Q15">
-        <v>26.24727608003553</v>
+        <v>26.92015859668777</v>
       </c>
       <c r="R15">
-        <v>26.24727608003553</v>
+        <v>242.28142737019</v>
       </c>
       <c r="S15">
-        <v>0.01598435948671843</v>
+        <v>0.007762475709363748</v>
       </c>
       <c r="T15">
-        <v>0.01598435948671843</v>
+        <v>0.007762475709363749</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.6791255406623</v>
+        <v>18.86569966666666</v>
       </c>
       <c r="H16">
-        <v>18.6791255406623</v>
+        <v>56.59709899999999</v>
       </c>
       <c r="I16">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="J16">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.558421719974567</v>
+        <v>1.067853</v>
       </c>
       <c r="N16">
-        <v>0.558421719974567</v>
+        <v>3.203559</v>
       </c>
       <c r="O16">
-        <v>0.03221383882012373</v>
+        <v>0.03140811737476231</v>
       </c>
       <c r="P16">
-        <v>0.03221383882012373</v>
+        <v>0.0314081173747623</v>
       </c>
       <c r="Q16">
-        <v>10.43082941203751</v>
+        <v>20.145793986149</v>
       </c>
       <c r="R16">
-        <v>10.43082941203751</v>
+        <v>181.312145875341</v>
       </c>
       <c r="S16">
-        <v>0.006352283054372386</v>
+        <v>0.005809075600415255</v>
       </c>
       <c r="T16">
-        <v>0.006352283054372386</v>
+        <v>0.005809075600415253</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.6791255406623</v>
+        <v>18.86569966666666</v>
       </c>
       <c r="H17">
-        <v>18.6791255406623</v>
+        <v>56.59709899999999</v>
       </c>
       <c r="I17">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="J17">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.946615086080339</v>
+        <v>1.483919333333333</v>
       </c>
       <c r="N17">
-        <v>0.946615086080339</v>
+        <v>4.451758</v>
       </c>
       <c r="O17">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="P17">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="Q17">
-        <v>17.6819420315795</v>
+        <v>27.99517647222689</v>
       </c>
       <c r="R17">
-        <v>17.6819420315795</v>
+        <v>251.956588250042</v>
       </c>
       <c r="S17">
-        <v>0.01076814664478892</v>
+        <v>0.008072459029708335</v>
       </c>
       <c r="T17">
-        <v>0.01076814664478892</v>
+        <v>0.008072459029708335</v>
       </c>
     </row>
   </sheetData>
